--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>suggestedManufacturer</t>
   </si>
@@ -45,6 +45,27 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>purchaseRequestNumber</t>
+  </si>
+  <si>
+    <t>shortText</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>uom</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>manufacturerPartNumber</t>
   </si>
 </sst>
 </file>
@@ -359,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0"/>
   </sheetViews>
@@ -372,26 +393,47 @@
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>suggestedManufacturer</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>unitPrice</t>
-  </si>
-  <si>
-    <t>totalPrice</t>
   </si>
   <si>
     <t>leadTime</t>
@@ -380,9 +377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -393,27 +392,27 @@
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -432,9 +431,6 @@
       </c>
       <c r="M1" t="s">
         <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamarbattulga/Documents/works/ot/backend/src/private/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>suggestedManufacturer</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>manufacturerPartNumber</t>
+  </si>
+  <si>
+    <t>alternative</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -392,7 +395,7 @@
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -430,10 +433,21 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"DDP - OT UB warehouse, DDP - OT site, FCA - Supplier Facility, EXW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -24,61 +24,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>suggestedManufacturer</t>
-  </si>
-  <si>
-    <t>suggestedManufacturerPartNumber</t>
-  </si>
-  <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t>leadTime</t>
-  </si>
-  <si>
-    <t>shippingTerms</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>purchaseRequestNumber</t>
-  </si>
-  <si>
-    <t>shortText</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>uom</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>manufacturerPartNumber</t>
-  </si>
-  <si>
-    <t>alternative</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Suggested Manufacturer if any / Санал болгосон үйлдэвэрлэгч байвал</t>
+  </si>
+  <si>
+    <t>Suggested Manufacturer Part No / Санал болгосон үйлдэвэрлэгчийн эдийн дугаар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Terms/ Хүргэлтийн нөхцөл </t>
+  </si>
+  <si>
+    <t>Alternative (YES/NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lead time (Нийлүүлэх хугацаа Days - Өдрөөр) </t>
+  </si>
+  <si>
+    <t>Comment (Тэмдэглэл)</t>
+  </si>
+  <si>
+    <t>OT Material Code</t>
+  </si>
+  <si>
+    <t>Purchase Request Number</t>
+  </si>
+  <si>
+    <t>Short Text</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit Price (excluding VAT) Нэгж барааны үнэ (НӨАТ-гүй) MNT - Төгрөгөөр </t>
+  </si>
+  <si>
+    <r>
+      <t>Currency (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>If you are Mongolian supplier please provide your quatations only in MNT, if you are international supplier please provide your quotations only in USD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -393,58 +443,67 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"DDP - OT UB warehouse, DDP - OT site, FCA - Supplier Facility, EXW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,13 +499,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>"DDP - OT UB warehouse, DDP - OT site, FCA - Supplier Facility, EXW"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"MNT,USD"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -5,15 +5,18 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/works/ot-backend/src/private/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -26,74 +29,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Suggested Manufacturer if any / Санал болгосон үйлдэвэрлэгч байвал</t>
-  </si>
-  <si>
-    <t>Suggested Manufacturer Part No / Санал болгосон үйлдэвэрлэгчийн эдийн дугаар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shipping Terms/ Хүргэлтийн нөхцөл </t>
-  </si>
-  <si>
-    <t>Alternative (YES/NO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lead time (Нийлүүлэх хугацаа Days - Өдрөөр) </t>
-  </si>
-  <si>
-    <t>Comment (Тэмдэглэл)</t>
-  </si>
-  <si>
-    <t>OT Material Code</t>
-  </si>
-  <si>
-    <t>Purchase Request Number</t>
-  </si>
-  <si>
-    <t>Short Text</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unit Price (excluding VAT) Нэгж барааны үнэ (НӨАТ-гүй) MNT - Төгрөгөөр </t>
-  </si>
-  <si>
-    <r>
-      <t>Currency (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>If you are Mongolian supplier please provide your quatations only in MNT, if you are international supplier please provide your quotations only in USD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t xml:space="preserve">PR Number /                                      PR-ийн дугаар               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OT Material number /                 Барааны дугаар </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Description / Барааны тодорхойлолт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity /               Тоо ширхэг  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOM /               Хэмжих нэгж </t>
+  </si>
+  <si>
+    <t>Manufacturer /                         Үйлдвэрлэгч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer Part Number /                   Үйлдвэрлэгчийн эдийн дугаар </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit Price in MNT (excluding VAT) - Нэгж барааны үнэ Төгрөгөөр                   ( НӨАТ-гүй )</t>
+  </si>
+  <si>
+    <t>Currency (Mongolian supplier submits quotes only in MNT, International supplier submits quotes only in USD) /                                           Мөнгөн тэмдэгт (Дотоодын ханган нийлүүлэгч зөвхөн Төгрөгөөр үнэ өгнө)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lead time in Days              ( Нийлүүлэх хугацаа  - Өдрөөр ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping Terms / Хүргэлтийн нөхцөл  </t>
+  </si>
+  <si>
+    <t>Alternative                     ( YES / NO ) /     Барааг оруулж буй эсэх (Тийм/Үгүй)</t>
+  </si>
+  <si>
+    <t>Suggested Manufacturer if yes / Хэрэв тийм бол санал болгож буй үйлдвэрлэгч</t>
+  </si>
+  <si>
+    <t>Suggested Manufacturer Part number / Санал болгосон үйлдвэрлэгчийн эдийн дугаар</t>
+  </si>
+  <si>
+    <t>Comment          ( Тэмдэглэл )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,21 +101,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,20 +124,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,81 +436,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"DDP - OT UB warehouse, DDP - OT site, FCA - Supplier Facility, EXW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"MNT,USD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/private/templates/rfq_responded_products.xlsx
+++ b/src/private/templates/rfq_responded_products.xlsx
@@ -53,18 +53,12 @@
     <t xml:space="preserve"> Unit Price in MNT (excluding VAT) - Нэгж барааны үнэ Төгрөгөөр                   ( НӨАТ-гүй )</t>
   </si>
   <si>
-    <t>Currency (Mongolian supplier submits quotes only in MNT, International supplier submits quotes only in USD) /                                           Мөнгөн тэмдэгт (Дотоодын ханган нийлүүлэгч зөвхөн Төгрөгөөр үнэ өгнө)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lead time in Days              ( Нийлүүлэх хугацаа  - Өдрөөр ) </t>
   </si>
   <si>
     <t xml:space="preserve">Shipping Terms / Хүргэлтийн нөхцөл  </t>
   </si>
   <si>
-    <t>Alternative                     ( YES / NO ) /     Барааг оруулж буй эсэх (Тийм/Үгүй)</t>
-  </si>
-  <si>
     <t>Suggested Manufacturer if yes / Хэрэв тийм бол санал болгож буй үйлдвэрлэгч</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>Comment          ( Тэмдэглэл )</t>
+  </si>
+  <si>
+    <t>Currency (If you are Mongolian supplier please provide your quotations only in MNT, if you are international supplier please provide your quotations only in USD) /                                           Мөнгөн тэмдэгт (Дотоодын ханган нийлүүлэгч зөвхөн Төгрөгөөр үнэ өгнө)</t>
+  </si>
+  <si>
+    <t>Alternative                     ( YES / NO ) /     Барааг орлуулж буй эсэх (Тийм/Үгүй)</t>
   </si>
 </sst>
 </file>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,7 +459,7 @@
     <col min="15" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,25 +485,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -511,10 +511,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"DDP - OT UB warehouse, DDP - OT site, FCA - Supplier Facility, EXW"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"MNT,USD"</formula1>
     </dataValidation>
   </dataValidations>
